--- a/data/test_cases.xlsx
+++ b/data/test_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>case_name</t>
   </si>
@@ -49,6 +49,81 @@
   </si>
   <si>
     <t>{"mobile_phone": "18111111111", "pwd": "12345678"}</t>
+  </si>
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>regiser</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/member/register</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"", "pwd":""}</t>
+  </si>
+  <si>
+    <t>{"X-Lemonban-Media-Type":"lemonban.v1"}</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>手机号长度不足11位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"1371234123", "pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>手机号长度超过11位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13712341231111", "pwd":"12345678","regname":"yuzz"}</t>
+  </si>
+  <si>
+    <t>手机号包含非数字</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"137123456ab", "pwd":"12345678","regname":"yuzz"}</t>
+  </si>
+  <si>
+    <t>不是手机号的11位数</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"23712341213", "pwd":"12345678","regname":"yuzz"}</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13712341234", "pwd":"","regname":"yuzz"}</t>
+  </si>
+  <si>
+    <t>密码长度不足8位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13712341234", "pwd":"1234567","regname":"yuzz"}</t>
+  </si>
+  <si>
+    <t>密码长度超过8位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13712341234", "pwd":"123456789","regname":"yuzz"}</t>
   </si>
 </sst>
 </file>
@@ -58,8 +133,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,6 +145,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -77,70 +205,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,63 +258,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +298,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,6 +394,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -247,163 +466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,21 +497,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,7 +520,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,7 +529,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,17 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -514,6 +578,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -534,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,35 +1176,282 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="8.22222222222222" customWidth="1"/>
+    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="21.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="9.44444444444444" customWidth="1"/>
+    <col min="5" max="5" width="25.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="72.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="53.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_cases.xlsx
+++ b/data/test_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>case_name</t>
   </si>
@@ -63,7 +63,7 @@
     <t>result</t>
   </si>
   <si>
-    <t>regiser</t>
+    <t>register</t>
   </si>
   <si>
     <t>手机号为空</t>
@@ -78,10 +78,7 @@
     <t>{"mobilephone":"", "pwd":""}</t>
   </si>
   <si>
-    <t>{"X-Lemonban-Media-Type":"lemonban.v1"}</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
   </si>
   <si>
     <t>手机号长度不足11位</t>
@@ -120,10 +117,22 @@
     <t>{"mobilephone":"13712341234", "pwd":"1234567","regname":"yuzz"}</t>
   </si>
   <si>
-    <t>密码长度超过8位</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13712341234", "pwd":"123456789","regname":"yuzz"}</t>
+    <t>密码长度超过18位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13712341234", "pwd":"123456789avaknsdadasd","regname":"yuzz"}</t>
+  </si>
+  <si>
+    <t>重复注册</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#exist_phone#", "pwd":"123456789","regname":"yuzz"}</t>
+  </si>
+  <si>
+    <t>正确注册</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#new_phone#", "pwd":"123456789","regname":"yuzz"}</t>
   </si>
 </sst>
 </file>
@@ -131,12 +140,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,46 +154,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +203,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,7 +246,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,74 +254,59 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,187 +315,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,6 +512,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,46 +582,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,17 +612,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -597,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -609,139 +632,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1176,53 +1205,53 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.22222222222222" customWidth="1"/>
     <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="21.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="9.44444444444444" customWidth="1"/>
-    <col min="5" max="5" width="25.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="72.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="19.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="7.88888888888889" customWidth="1"/>
+    <col min="5" max="5" width="18.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="79.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="53.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1247,11 +1276,8 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1259,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1268,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1276,11 +1302,8 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1288,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1297,7 +1320,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1305,11 +1328,8 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1317,7 +1337,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1326,7 +1346,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1334,11 +1354,8 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1346,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1355,7 +1372,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
@@ -1363,11 +1380,8 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1375,7 +1389,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1384,7 +1398,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -1392,11 +1406,8 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1404,7 +1415,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1413,7 +1424,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
@@ -1421,11 +1432,8 @@
       <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1433,7 +1441,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1442,7 +1450,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -1450,8 +1458,57 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
-        <v>21</v>
+    </row>
+    <row r="10" ht="12" customHeight="1" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_cases.xlsx
+++ b/data/test_cases.xlsx
@@ -4,71 +4,116 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Recharge" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="63">
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
   <si>
     <t>case_name</t>
   </si>
   <si>
+    <t>method</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
-    <t>method</t>
+    <t>json</t>
   </si>
   <si>
     <t>headers</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>正常登录成功</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8766/futureloan/member/login</t>
+    <t>result</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
+    <t>/member/login</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "", "pwd": "123456"}</t>
+  </si>
+  <si>
     <t>{"X-Lemonban-Media-Type": "lemonban.v2"}</t>
   </si>
   <si>
-    <t>{"mobile_phone": "18111111111", "pwd": "12345678"}</t>
-  </si>
-  <si>
-    <t>case_id</t>
-  </si>
-  <si>
-    <t>interface</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>result</t>
+    <t>手机号包含非数字</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "137123412aa", "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>手机号为不合法数字</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "21234512312", "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>手机号长度不足11位</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "1811111111", "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>手机号长度超过11位</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "181111111113", "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>手机未注册</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "*phone*", "pwd": 999999}</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "#phone#", "pwd": ""}</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "#phone#", "pwd": 123455677}</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "#phone#", "pwd": "#pwd#"}</t>
   </si>
   <si>
     <t>register</t>
   </si>
   <si>
-    <t>手机号为空</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -81,21 +126,12 @@
     <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
   </si>
   <si>
-    <t>手机号长度不足11位</t>
-  </si>
-  <si>
     <t>{"mobilephone":"1371234123", "pwd":"12345678"}</t>
   </si>
   <si>
-    <t>手机号长度超过11位</t>
-  </si>
-  <si>
     <t>{"mobilephone":"13712341231111", "pwd":"12345678","regname":"yuzz"}</t>
   </si>
   <si>
-    <t>手机号包含非数字</t>
-  </si>
-  <si>
     <t>{"mobilephone":"137123456ab", "pwd":"12345678","regname":"yuzz"}</t>
   </si>
   <si>
@@ -105,9 +141,6 @@
     <t>{"mobilephone":"23712341213", "pwd":"12345678","regname":"yuzz"}</t>
   </si>
   <si>
-    <t>密码为空</t>
-  </si>
-  <si>
     <t>{"mobilephone":"13712341234", "pwd":"","regname":"yuzz"}</t>
   </si>
   <si>
@@ -133,6 +166,45 @@
   </si>
   <si>
     <t>{"mobilephone":"#new_phone#", "pwd":"123456789","regname":"yuzz"}</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>负数</t>
+  </si>
+  <si>
+    <t>/member/recharge</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#", "amount":-1}</t>
+  </si>
+  <si>
+    <t>字母</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#", "amount":""abc}</t>
+  </si>
+  <si>
+    <t>三位小数</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#", "amount":11.111}</t>
+  </si>
+  <si>
+    <t>大于max</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#", "amount":500001}</t>
+  </si>
+  <si>
+    <t>用户不正确</t>
+  </si>
+  <si>
+    <t>{"member_id":"#wrong_member_id#", "amount":100}</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#", "amount":100}</t>
   </si>
 </sst>
 </file>
@@ -140,10 +212,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -162,27 +234,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,53 +324,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,38 +341,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,6 +354,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -321,13 +393,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,31 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,133 +555,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +584,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,39 +627,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,26 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,6 +660,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -620,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -632,133 +704,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -769,7 +841,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1120,78 +1192,284 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="55.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="26.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="56.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="52.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.33333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="23.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="52.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="42" customWidth="1"/>
+    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
     </row>
@@ -1207,8 +1485,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1223,32 +1501,32 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1256,22 +1534,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1282,22 +1560,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1308,22 +1586,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1334,22 +1612,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1360,22 +1638,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1386,22 +1664,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1412,22 +1690,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1438,22 +1716,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1464,22 +1742,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1490,22 +1768,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1521,14 +1799,207 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <cols>
+    <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="18.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="23.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="48.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="60.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/data/test_cases.xlsx
+++ b/data/test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -212,10 +212,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -234,10 +234,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,9 +249,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,14 +309,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,16 +330,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,8 +355,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,60 +377,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -393,187 +393,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,35 +584,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -631,21 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -657,6 +613,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,6 +649,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -692,145 +692,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,8 +1194,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1470,7 +1470,7 @@
         <v>14</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1801,8 +1801,8 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1970,7 +1970,7 @@
         <v>35</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="7" spans="1:8">

--- a/data/test_cases.xlsx
+++ b/data/test_cases.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
     <sheet name="Recharge" sheetId="3" r:id="rId3"/>
+    <sheet name="Invest" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
   <si>
     <t>case_id</t>
   </si>
@@ -205,6 +206,78 @@
   </si>
   <si>
     <t>{"member_id":"#member_id#", "amount":100}</t>
+  </si>
+  <si>
+    <t>添加投资</t>
+  </si>
+  <si>
+    <t>投资成功</t>
+  </si>
+  <si>
+    <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#", "title":"我来测试", "amount":"5200000, "loan_rate":18}</t>
+  </si>
+  <si>
+    <t>审核投资</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"approved_or_not":"true", "loan_id":"#loan_id#"}</t>
+  </si>
+  <si>
+    <t>{"X-Lemonban-Media-Type":"lemonban.v3"}</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>投资金额为空</t>
+  </si>
+  <si>
+    <t>/member/invest</t>
+  </si>
+  <si>
+    <t>{"member_id": "#member_id#", "loan_id": "#loan_id#"}</t>
+  </si>
+  <si>
+    <t>{"X-Lemonban-Media-Type":"lemonban.v4"}</t>
+  </si>
+  <si>
+    <t>投资金额为负数</t>
+  </si>
+  <si>
+    <t>{"member_id": "#member_id#", "loan_id": "#loan_id#", "amount":-2}</t>
+  </si>
+  <si>
+    <t>{"X-Lemonban-Media-Type":"lemonban.v5"}</t>
+  </si>
+  <si>
+    <t>投资金额不是100的倍数</t>
+  </si>
+  <si>
+    <t>{"member_id": "#member_id#", "loan_id": "#loan_id#", "amount":103}</t>
+  </si>
+  <si>
+    <t>{"X-Lemonban-Media-Type":"lemonban.v6"}</t>
+  </si>
+  <si>
+    <t>投资金额超过余额</t>
+  </si>
+  <si>
+    <t>{"member_id": "#member_id#", "loan_id": "#loan_id#", "amount":"*above_balance*"}</t>
+  </si>
+  <si>
+    <t>{"X-Lemonban-Media-Type":"lemonban.v7"}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#member_id#", "loan_id": "#loan_id#", "amount":100}</t>
+  </si>
+  <si>
+    <t>{"X-Lemonban-Media-Type":"lemonban.v8"}</t>
   </si>
 </sst>
 </file>
@@ -212,10 +285,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -234,11 +307,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,8 +321,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,8 +366,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,14 +376,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,45 +437,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,38 +450,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -393,187 +466,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,17 +660,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,31 +690,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,18 +714,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,10 +765,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -707,130 +780,130 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1801,8 +1874,8 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -2004,4 +2077,218 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <cols>
+    <col min="3" max="3" width="22.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="7.11111111111111" customWidth="1"/>
+    <col min="5" max="5" width="17.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="84.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="41.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>